--- a/Code/Jupiter/Connect4/Logs/DQN/DQN-SelfPlay_L2-11400-TU-200-BS-128_training_config.xlsx
+++ b/Code/Jupiter/Connect4/Logs/DQN/DQN-SelfPlay_L2-11400-TU-200-BS-128_training_config.xlsx
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.12</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.12</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[0.4, 0.6, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0.3, 0.6, 0.1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.9999999999999999</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
